--- a/Models/2_MPC_USHighway/velocityDistributionLusail.xlsx
+++ b/Models/2_MPC_USHighway/velocityDistributionLusail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jateq/Documents/indstrAI/vehicle-model-predictive-control/Models/2_MPC_USHighway/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370676E1-F323-E646-A022-C4D33D30CCF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804AA85B-14F3-8140-B52B-AC048B7234DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -366,8 +366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
-      <selection activeCell="U59" sqref="U59"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="AX2" sqref="AX2:AZ42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -535,157 +535,157 @@
         <v>3300</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Q2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="V2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="W2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="X2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Z2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AA2">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AB2">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AC2">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AD2">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AE2">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AF2">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AG2">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AH2">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AI2">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AJ2">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AK2">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AL2">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AM2">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AN2">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AO2">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AP2">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AQ2">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AR2">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AS2">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AT2">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AU2">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AV2">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AW2">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AX2">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AY2">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AZ2">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.2">
@@ -693,157 +693,157 @@
         <v>3310</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Q3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="V3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="W3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="X3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Z3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AA3">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AB3">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AC3">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AD3">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AE3">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AF3">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AG3">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AH3">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AI3">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AJ3">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AK3">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AL3">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AM3">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AN3">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AO3">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AP3">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AQ3">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AR3">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AS3">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AT3">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AU3">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AV3">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AW3">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AX3">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AY3">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AZ3">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.2">
@@ -851,157 +851,157 @@
         <v>3320</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Q4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="V4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="W4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="X4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Z4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AA4">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AB4">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AC4">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AD4">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AE4">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AF4">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AG4">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AH4">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AI4">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AJ4">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AK4">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AL4">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AM4">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AN4">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AO4">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AP4">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AQ4">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AR4">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AS4">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AT4">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AU4">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AV4">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AW4">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AX4">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AY4">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AZ4">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.2">
@@ -1009,157 +1009,157 @@
         <v>3330</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H5">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I5">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J5">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K5">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L5">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M5">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N5">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O5">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P5">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Q5">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R5">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S5">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T5">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U5">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="V5">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="W5">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="X5">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y5">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Z5">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AA5">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AB5">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AC5">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AD5">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AE5">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AF5">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AG5">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AH5">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AI5">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AJ5">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AK5">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AL5">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AM5">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AN5">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AO5">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AP5">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AQ5">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AR5">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AS5">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AT5">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AU5">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AV5">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AW5">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AX5">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AY5">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AZ5">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.2">
@@ -1167,157 +1167,157 @@
         <v>3340</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Q6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="V6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="W6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="X6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Z6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AA6">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AB6">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AC6">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AD6">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AE6">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AF6">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AG6">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AH6">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AI6">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AJ6">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AK6">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AL6">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AM6">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AN6">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AO6">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AP6">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AQ6">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AR6">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AS6">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AT6">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AU6">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AV6">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AW6">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AX6">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AY6">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AZ6">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.2">
@@ -1325,157 +1325,157 @@
         <v>3350</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Q7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="V7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="W7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="X7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Z7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AA7">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AB7">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AC7">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AD7">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AE7">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AF7">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AG7">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AH7">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AI7">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AJ7">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AK7">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AL7">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AM7">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AN7">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AO7">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AP7">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AQ7">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AR7">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AS7">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AT7">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AU7">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AV7">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AW7">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AX7">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AY7">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AZ7">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.2">
@@ -1483,157 +1483,157 @@
         <v>3360</v>
       </c>
       <c r="B8">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H8">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I8">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J8">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K8">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L8">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M8">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N8">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O8">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P8">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Q8">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R8">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S8">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T8">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U8">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="V8">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="W8">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="X8">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y8">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Z8">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AA8">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AB8">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AC8">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AD8">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AE8">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AF8">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AG8">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AH8">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AI8">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AJ8">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AK8">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AL8">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AM8">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AN8">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AO8">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AP8">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AQ8">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AR8">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AS8">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AT8">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AU8">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AV8">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AW8">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AX8">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AY8">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AZ8">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.2">
@@ -1641,157 +1641,157 @@
         <v>3370</v>
       </c>
       <c r="B9">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F9">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H9">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I9">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J9">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K9">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L9">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M9">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N9">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O9">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P9">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Q9">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R9">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S9">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T9">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U9">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="V9">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="W9">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="X9">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y9">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Z9">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AA9">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AB9">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AC9">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AD9">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AE9">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AF9">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AG9">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AH9">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AI9">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AJ9">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AK9">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AL9">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AM9">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AN9">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AO9">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AP9">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AQ9">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AR9">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AS9">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AT9">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AU9">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AV9">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AW9">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AX9">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AY9">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AZ9">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.2">
@@ -1799,157 +1799,157 @@
         <v>3380</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H10">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I10">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J10">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K10">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L10">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M10">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N10">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O10">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P10">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Q10">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R10">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S10">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T10">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U10">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="V10">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="W10">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="X10">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y10">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Z10">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AA10">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AB10">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AC10">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AD10">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AE10">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AF10">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AG10">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AH10">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AI10">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AJ10">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AK10">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AL10">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AM10">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AN10">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AO10">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AP10">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AQ10">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AR10">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AS10">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AT10">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AU10">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AV10">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AW10">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AX10">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AY10">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AZ10">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.2">
@@ -1957,157 +1957,157 @@
         <v>3390</v>
       </c>
       <c r="B11">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F11">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H11">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I11">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J11">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K11">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L11">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M11">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N11">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O11">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P11">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Q11">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R11">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S11">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T11">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U11">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="V11">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="W11">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="X11">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y11">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Z11">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AA11">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AB11">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AC11">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AD11">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AE11">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AF11">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AG11">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AH11">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AI11">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AJ11">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AK11">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AL11">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AM11">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AN11">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AO11">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AP11">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AQ11">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AR11">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AS11">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AT11">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AU11">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AV11">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AW11">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AX11">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AY11">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AZ11">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.2">
@@ -2115,157 +2115,157 @@
         <v>3400</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F12">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G12">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H12">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I12">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J12">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K12">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L12">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M12">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N12">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O12">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P12">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Q12">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R12">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S12">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T12">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U12">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="V12">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="W12">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="X12">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y12">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Z12">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AA12">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AB12">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AC12">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AD12">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AE12">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AF12">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AG12">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AH12">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AI12">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AJ12">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AK12">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AL12">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AM12">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AN12">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AO12">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AP12">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AQ12">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AR12">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AS12">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AT12">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AU12">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AV12">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AW12">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AX12">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AY12">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AZ12">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.2">
@@ -2273,157 +2273,157 @@
         <v>3410</v>
       </c>
       <c r="B13">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F13">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G13">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H13">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I13">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J13">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K13">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L13">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M13">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N13">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O13">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P13">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Q13">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R13">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S13">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T13">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U13">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="V13">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="W13">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="X13">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y13">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Z13">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AA13">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AB13">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AC13">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AD13">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AE13">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AF13">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AG13">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AH13">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AI13">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AJ13">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AK13">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AL13">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AM13">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AN13">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AO13">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AP13">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AQ13">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AR13">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AS13">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AT13">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AU13">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AV13">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AW13">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AX13">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AY13">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AZ13">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.2">
@@ -2431,157 +2431,157 @@
         <v>3420</v>
       </c>
       <c r="B14">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E14">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F14">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G14">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H14">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I14">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J14">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K14">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L14">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M14">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N14">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O14">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P14">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Q14">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R14">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S14">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T14">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U14">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="V14">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="W14">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="X14">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y14">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Z14">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AA14">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AB14">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AC14">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AD14">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AE14">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AF14">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AG14">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AH14">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AI14">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AJ14">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AK14">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AL14">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AM14">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AN14">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AO14">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AP14">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AQ14">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AR14">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AS14">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AT14">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AU14">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AV14">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AW14">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AX14">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AY14">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AZ14">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.2">
@@ -2589,157 +2589,157 @@
         <v>3430</v>
       </c>
       <c r="B15">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F15">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G15">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H15">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I15">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J15">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K15">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L15">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M15">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N15">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O15">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P15">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Q15">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R15">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S15">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T15">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U15">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="V15">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="W15">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="X15">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y15">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Z15">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AA15">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AB15">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AC15">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AD15">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AE15">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AF15">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AG15">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AH15">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AI15">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AJ15">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AK15">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AL15">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AM15">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AN15">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AO15">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AP15">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AQ15">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AR15">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AS15">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AT15">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AU15">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AV15">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AW15">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AX15">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AY15">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AZ15">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.2">
@@ -2747,157 +2747,157 @@
         <v>3440</v>
       </c>
       <c r="B16">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F16">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G16">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H16">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I16">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J16">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K16">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L16">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M16">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N16">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O16">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P16">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Q16">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R16">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S16">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T16">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U16">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="V16">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="W16">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="X16">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y16">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Z16">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AA16">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AB16">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AC16">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AD16">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AE16">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AF16">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AG16">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AH16">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AI16">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AJ16">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AK16">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AL16">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AM16">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AN16">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AO16">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AP16">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AQ16">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AR16">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AS16">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AT16">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AU16">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AV16">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AW16">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AX16">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AY16">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AZ16">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.2">
@@ -2905,157 +2905,157 @@
         <v>3450</v>
       </c>
       <c r="B17">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E17">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F17">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G17">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H17">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I17">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J17">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K17">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L17">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M17">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N17">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O17">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P17">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Q17">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R17">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S17">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T17">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U17">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="V17">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="W17">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="X17">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y17">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Z17">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AA17">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AB17">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AC17">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AD17">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AE17">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AF17">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AG17">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AH17">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AI17">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AJ17">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AK17">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AL17">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AM17">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AN17">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AO17">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AP17">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AQ17">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AR17">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AS17">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AT17">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AU17">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AV17">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AW17">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AX17">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AY17">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AZ17">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.2">
@@ -3063,157 +3063,157 @@
         <v>3460</v>
       </c>
       <c r="B18">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C18">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D18">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E18">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F18">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G18">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H18">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I18">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J18">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K18">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L18">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M18">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N18">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O18">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P18">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Q18">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R18">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S18">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T18">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U18">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="V18">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="W18">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="X18">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y18">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Z18">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AA18">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AB18">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AC18">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AD18">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AE18">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AF18">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AG18">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AH18">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AI18">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AJ18">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AK18">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AL18">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AM18">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AN18">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AO18">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AP18">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AQ18">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AR18">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AS18">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AT18">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AU18">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AV18">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AW18">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AX18">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AY18">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AZ18">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.2">
@@ -3221,157 +3221,157 @@
         <v>3470</v>
       </c>
       <c r="B19">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D19">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E19">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F19">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G19">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H19">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I19">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J19">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K19">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L19">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M19">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N19">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O19">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P19">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Q19">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R19">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S19">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T19">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U19">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="V19">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="W19">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="X19">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y19">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Z19">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AA19">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AB19">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AC19">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AD19">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AE19">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AF19">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AG19">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AH19">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AI19">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AJ19">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AK19">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AL19">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AM19">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AN19">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AO19">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AP19">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AQ19">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AR19">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AS19">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AT19">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AU19">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AV19">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AW19">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AX19">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AY19">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AZ19">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.2">
@@ -3379,157 +3379,157 @@
         <v>3480</v>
       </c>
       <c r="B20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Q20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="V20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="W20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="X20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Z20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AA20">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AB20">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AC20">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AD20">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AE20">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AF20">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AG20">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AH20">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AI20">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AJ20">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AK20">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AL20">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AM20">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AN20">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AO20">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AP20">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AQ20">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AR20">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AS20">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AT20">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AU20">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AV20">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AW20">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AX20">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AY20">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AZ20">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.2">
@@ -3537,157 +3537,157 @@
         <v>3490</v>
       </c>
       <c r="B21">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E21">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F21">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G21">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H21">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I21">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J21">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K21">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L21">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M21">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N21">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O21">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P21">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Q21">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R21">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S21">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T21">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U21">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="V21">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="W21">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="X21">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y21">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Z21">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AA21">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AB21">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AC21">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AD21">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AE21">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AF21">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AG21">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AH21">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AI21">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AJ21">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AK21">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AL21">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AM21">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AN21">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AO21">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AP21">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AQ21">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AR21">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AS21">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AT21">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AU21">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AV21">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AW21">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AX21">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AY21">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AZ21">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.2">
@@ -3695,157 +3695,157 @@
         <v>3500</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C22">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D22">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E22">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F22">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G22">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H22">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I22">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J22">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K22">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L22">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M22">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N22">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O22">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P22">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Q22">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R22">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S22">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T22">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U22">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="V22">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="W22">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="X22">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y22">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Z22">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AA22">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AB22">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AC22">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AD22">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AE22">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AF22">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AG22">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AH22">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AI22">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AJ22">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AK22">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AL22">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AM22">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AN22">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AO22">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AP22">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AQ22">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AR22">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AS22">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AT22">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AU22">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AV22">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AW22">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AX22">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AY22">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AZ22">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.2">
@@ -3853,157 +3853,157 @@
         <v>3510</v>
       </c>
       <c r="B23">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C23">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D23">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E23">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F23">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G23">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H23">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I23">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J23">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K23">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L23">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M23">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N23">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O23">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P23">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Q23">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R23">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S23">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T23">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U23">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="V23">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="W23">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="X23">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y23">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Z23">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AA23">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AB23">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AC23">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AD23">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AE23">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AF23">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AG23">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AH23">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AI23">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AJ23">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AK23">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AL23">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AM23">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AN23">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AO23">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AP23">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AQ23">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AR23">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AS23">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AT23">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AU23">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AV23">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AW23">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AX23">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AY23">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AZ23">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.2">
@@ -4011,157 +4011,157 @@
         <v>3520</v>
       </c>
       <c r="B24">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C24">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D24">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E24">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F24">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G24">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H24">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I24">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J24">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K24">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L24">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M24">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N24">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O24">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P24">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Q24">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R24">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S24">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T24">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U24">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="V24">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="W24">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="X24">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y24">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Z24">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AA24">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AB24">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AC24">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AD24">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AE24">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AF24">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AG24">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AH24">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AI24">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AJ24">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AK24">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AL24">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AM24">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AN24">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AO24">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AP24">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AQ24">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AR24">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AS24">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AT24">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AU24">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AV24">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AW24">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AX24">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AY24">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AZ24">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.2">
@@ -4169,157 +4169,157 @@
         <v>3530</v>
       </c>
       <c r="B25">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C25">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D25">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E25">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F25">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G25">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H25">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I25">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J25">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K25">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L25">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M25">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N25">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O25">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P25">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Q25">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R25">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S25">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T25">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U25">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="V25">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="W25">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="X25">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y25">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Z25">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AA25">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AB25">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AC25">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AD25">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AE25">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AF25">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AG25">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AH25">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AI25">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AJ25">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AK25">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AL25">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AM25">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AN25">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AO25">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AP25">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AQ25">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AR25">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AS25">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AT25">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AU25">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AV25">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AW25">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AX25">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AY25">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AZ25">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:52" x14ac:dyDescent="0.2">
@@ -4327,157 +4327,157 @@
         <v>3540</v>
       </c>
       <c r="B26">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C26">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D26">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E26">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F26">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G26">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H26">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I26">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J26">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K26">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L26">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M26">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N26">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O26">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P26">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Q26">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R26">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S26">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T26">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U26">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="V26">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="W26">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="X26">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y26">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Z26">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AA26">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AB26">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AC26">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AD26">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AE26">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AF26">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AG26">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AH26">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AI26">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AJ26">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AK26">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AL26">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AM26">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AN26">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AO26">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AP26">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AQ26">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AR26">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AS26">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AT26">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AU26">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AV26">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AW26">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AX26">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AY26">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AZ26">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.2">
@@ -4485,157 +4485,157 @@
         <v>3550</v>
       </c>
       <c r="B27">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C27">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D27">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E27">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F27">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G27">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H27">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I27">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J27">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K27">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L27">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M27">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N27">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O27">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P27">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Q27">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R27">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S27">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T27">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U27">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="V27">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="W27">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="X27">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y27">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Z27">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AA27">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AB27">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AC27">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AD27">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AE27">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AF27">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AG27">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AH27">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AI27">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AJ27">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AK27">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AL27">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AM27">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AN27">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AO27">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AP27">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AQ27">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AR27">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AS27">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AT27">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AU27">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AV27">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AW27">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AX27">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AY27">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AZ27">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.2">
@@ -4643,157 +4643,157 @@
         <v>3560</v>
       </c>
       <c r="B28">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C28">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D28">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E28">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F28">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G28">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H28">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I28">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J28">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K28">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L28">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M28">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N28">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O28">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P28">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Q28">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R28">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S28">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T28">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U28">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="V28">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="W28">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="X28">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y28">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Z28">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AA28">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AB28">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AC28">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AD28">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AE28">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AF28">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AG28">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AH28">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AI28">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AJ28">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AK28">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AL28">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AM28">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AN28">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AO28">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AP28">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AQ28">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AR28">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AS28">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AT28">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AU28">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AV28">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AW28">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AX28">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AY28">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AZ28">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.2">
@@ -4801,157 +4801,157 @@
         <v>3570</v>
       </c>
       <c r="B29">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C29">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D29">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E29">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F29">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G29">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H29">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I29">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J29">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K29">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L29">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M29">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N29">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O29">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P29">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Q29">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R29">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S29">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T29">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U29">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="V29">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="W29">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="X29">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y29">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Z29">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AA29">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AB29">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AC29">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AD29">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AE29">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AF29">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AG29">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AH29">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AI29">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AJ29">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AK29">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AL29">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AM29">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AN29">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AO29">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AP29">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AQ29">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AR29">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AS29">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AT29">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AU29">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AV29">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AW29">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AX29">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AY29">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AZ29">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.2">
@@ -4959,157 +4959,157 @@
         <v>3580</v>
       </c>
       <c r="B30">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C30">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D30">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E30">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F30">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G30">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H30">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I30">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J30">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K30">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L30">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M30">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N30">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O30">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P30">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Q30">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R30">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S30">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T30">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U30">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="V30">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="W30">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="X30">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y30">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Z30">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AA30">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AB30">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AC30">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AD30">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AE30">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AF30">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AG30">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AH30">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AI30">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AJ30">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AK30">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AL30">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AM30">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AN30">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AO30">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AP30">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AQ30">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AR30">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AS30">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AT30">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AU30">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AV30">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AW30">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AX30">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AY30">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AZ30">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.2">
@@ -5117,157 +5117,157 @@
         <v>3590</v>
       </c>
       <c r="B31">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C31">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D31">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E31">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F31">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G31">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H31">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I31">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J31">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K31">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L31">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M31">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N31">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O31">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P31">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Q31">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R31">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S31">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T31">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U31">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="V31">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="W31">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="X31">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y31">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Z31">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AA31">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AB31">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AC31">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AD31">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AE31">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AF31">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AG31">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AH31">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AI31">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AJ31">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AK31">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AL31">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AM31">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AN31">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AO31">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AP31">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AQ31">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AR31">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AS31">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AT31">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AU31">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AV31">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AW31">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AX31">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AY31">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AZ31">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:52" x14ac:dyDescent="0.2">
@@ -5275,157 +5275,157 @@
         <v>3600</v>
       </c>
       <c r="B32">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C32">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D32">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E32">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F32">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G32">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H32">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I32">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J32">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K32">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L32">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M32">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N32">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O32">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P32">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Q32">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R32">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S32">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T32">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U32">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="V32">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="W32">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="X32">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y32">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Z32">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AA32">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AB32">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AC32">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AD32">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AE32">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AF32">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AG32">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AH32">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AI32">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AJ32">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AK32">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AL32">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AM32">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AN32">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AO32">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AP32">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AQ32">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AR32">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AS32">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AT32">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AU32">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AV32">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AW32">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AX32">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AY32">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AZ32">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:52" x14ac:dyDescent="0.2">
@@ -5433,157 +5433,157 @@
         <v>3610</v>
       </c>
       <c r="B33">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C33">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D33">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E33">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F33">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G33">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H33">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I33">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J33">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K33">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L33">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M33">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N33">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O33">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P33">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Q33">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R33">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S33">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T33">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U33">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="V33">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="W33">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="X33">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y33">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Z33">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AA33">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AB33">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AC33">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AD33">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AE33">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AF33">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AG33">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AH33">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AI33">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AJ33">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AK33">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AL33">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AM33">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AN33">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AO33">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AP33">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AQ33">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AR33">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AS33">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AT33">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AU33">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AV33">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AW33">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AX33">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AY33">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AZ33">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:52" x14ac:dyDescent="0.2">
@@ -5591,157 +5591,157 @@
         <v>3620</v>
       </c>
       <c r="B34">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C34">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D34">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E34">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F34">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G34">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H34">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I34">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J34">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K34">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L34">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M34">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N34">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O34">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P34">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Q34">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R34">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S34">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T34">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U34">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="V34">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="W34">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="X34">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y34">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Z34">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AA34">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AB34">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AC34">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AD34">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AE34">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AF34">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AG34">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AH34">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AI34">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AJ34">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AK34">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AL34">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AM34">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AN34">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AO34">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AP34">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AQ34">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AR34">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AS34">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AT34">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AU34">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AV34">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AW34">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AX34">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AY34">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AZ34">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:52" x14ac:dyDescent="0.2">
@@ -5749,157 +5749,157 @@
         <v>3630</v>
       </c>
       <c r="B35">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C35">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D35">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E35">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F35">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G35">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H35">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I35">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J35">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K35">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L35">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M35">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N35">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O35">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P35">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Q35">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R35">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S35">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T35">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U35">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="V35">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="W35">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="X35">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y35">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Z35">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AA35">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AB35">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AC35">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AD35">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AE35">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AF35">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AG35">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AH35">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AI35">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AJ35">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AK35">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AL35">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AM35">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AN35">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AO35">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AP35">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AQ35">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AR35">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AS35">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AT35">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AU35">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AV35">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AW35">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AX35">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AY35">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AZ35">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:52" x14ac:dyDescent="0.2">
@@ -5907,157 +5907,157 @@
         <v>3640</v>
       </c>
       <c r="B36">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C36">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D36">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E36">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F36">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G36">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H36">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I36">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J36">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K36">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L36">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M36">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N36">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O36">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P36">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Q36">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R36">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S36">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T36">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U36">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="V36">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="W36">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="X36">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y36">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Z36">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AA36">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AB36">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AC36">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AD36">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AE36">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AF36">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AG36">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AH36">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AI36">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AJ36">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AK36">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AL36">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AM36">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AN36">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AO36">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AP36">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AQ36">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AR36">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AS36">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AT36">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AU36">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AV36">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AW36">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AX36">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AY36">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AZ36">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:52" x14ac:dyDescent="0.2">
@@ -6065,157 +6065,157 @@
         <v>3650</v>
       </c>
       <c r="B37">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C37">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D37">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E37">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F37">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G37">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H37">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I37">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J37">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K37">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L37">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M37">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N37">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O37">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P37">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Q37">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R37">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S37">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T37">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U37">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="V37">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="W37">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="X37">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y37">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Z37">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AA37">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AB37">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AC37">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AD37">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AE37">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AF37">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AG37">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AH37">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AI37">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AJ37">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AK37">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AL37">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AM37">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AN37">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AO37">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AP37">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AQ37">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AR37">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AS37">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AT37">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AU37">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AV37">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AW37">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AX37">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AY37">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AZ37">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:52" x14ac:dyDescent="0.2">
@@ -6223,157 +6223,157 @@
         <v>3660</v>
       </c>
       <c r="B38">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C38">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D38">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E38">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F38">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G38">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H38">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I38">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J38">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K38">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L38">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M38">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N38">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O38">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P38">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Q38">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R38">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S38">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T38">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U38">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="V38">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="W38">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="X38">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y38">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Z38">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AA38">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AB38">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AC38">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AD38">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AE38">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AF38">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AG38">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AH38">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AI38">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AJ38">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AK38">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AL38">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AM38">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AN38">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AO38">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AP38">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AQ38">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AR38">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AS38">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AT38">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AU38">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AV38">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AW38">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AX38">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AY38">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AZ38">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:52" x14ac:dyDescent="0.2">
@@ -6381,157 +6381,157 @@
         <v>3670</v>
       </c>
       <c r="B39">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C39">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D39">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E39">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F39">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G39">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H39">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I39">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J39">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K39">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L39">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M39">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N39">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O39">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P39">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Q39">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R39">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S39">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T39">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U39">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="V39">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="W39">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="X39">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y39">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Z39">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AA39">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AB39">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AC39">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AD39">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AE39">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AF39">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AG39">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AH39">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AI39">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AJ39">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AK39">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AL39">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AM39">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AN39">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AO39">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AP39">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AQ39">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AR39">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AS39">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AT39">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AU39">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AV39">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AW39">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AX39">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AY39">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AZ39">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:52" x14ac:dyDescent="0.2">
@@ -6539,157 +6539,157 @@
         <v>3680</v>
       </c>
       <c r="B40">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C40">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D40">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E40">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F40">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G40">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H40">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I40">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J40">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K40">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L40">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M40">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N40">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O40">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P40">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Q40">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R40">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S40">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T40">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U40">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="V40">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="W40">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="X40">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y40">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Z40">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AA40">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AB40">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AC40">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AD40">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AE40">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AF40">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AG40">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AH40">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AI40">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AJ40">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AK40">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AL40">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AM40">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AN40">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AO40">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AP40">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AQ40">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AR40">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AS40">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AT40">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AU40">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AV40">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AW40">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AX40">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AY40">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AZ40">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:52" x14ac:dyDescent="0.2">
@@ -6697,157 +6697,157 @@
         <v>3690</v>
       </c>
       <c r="B41">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C41">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D41">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E41">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F41">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G41">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H41">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I41">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J41">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K41">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L41">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M41">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N41">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O41">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P41">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Q41">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R41">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S41">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T41">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U41">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="V41">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="W41">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="X41">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y41">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Z41">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AA41">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AB41">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AC41">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AD41">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AE41">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AF41">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AG41">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AH41">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AI41">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AJ41">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AK41">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AL41">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AM41">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AN41">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AO41">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AP41">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AQ41">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AR41">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AS41">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AT41">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AU41">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AV41">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AW41">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AX41">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AY41">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AZ41">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:52" x14ac:dyDescent="0.2">
@@ -6855,157 +6855,157 @@
         <v>3700</v>
       </c>
       <c r="B42">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C42">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D42">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E42">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F42">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G42">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H42">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I42">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J42">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K42">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L42">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M42">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N42">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O42">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P42">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Q42">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R42">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S42">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T42">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U42">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="V42">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="W42">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="X42">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y42">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Z42">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AA42">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AB42">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AC42">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AD42">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AE42">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AF42">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AG42">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AH42">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AI42">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AJ42">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AK42">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AL42">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AM42">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AN42">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AO42">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AP42">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AQ42">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AR42">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AS42">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AT42">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AU42">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AV42">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AW42">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AX42">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AY42">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AZ42">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
